--- a/biology/Zoologie/Actinopodidae/Actinopodidae.xlsx
+++ b/biology/Zoologie/Actinopodidae/Actinopodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Actinopodidae sont une famille d'araignées mygalomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Actinopodidae sont une famille d'araignées mygalomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique du Sud, en Australie et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique du Sud, en Australie et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prosomes et opisthosomes de ces araignées sont approximativement aussi longs que larges. Leurs pattes sont courtes mais très robustes. Les femelles sont entièrement d'un noir brillant mais les mâles portent des zones colorées de couleur vive (rouge, bleu). Ces araignées à filières courtes vivent dans des terriers, mais il est possible lors de la saison de reproduction de voir des mâles se déplacer en surface, même en plein jour. Les déplacements de ces araignées sont relativement lents et les individus sont généralement peu agressifs, surtout en ce qui concerne les femelles.
 Cependant, ces poils urticants peuvent être extrêmement dangereux pour des poumons de mammifères.
@@ -575,9 +591,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 46 espèces dans trois genres[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 46 espèces dans trois genres. 
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.0, 2013)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.0, 2013) :
 Actinopus Perty, 1833
 Missulena Walckenaer, 1805
 Plesiolena Goloboff &amp; Platnick, 1987</t>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1892 : Histoire naturelle des araignées. Paris, vol. 1, p. 1-256 (texte intégral).</t>
         </is>
